--- a/data/남북한발전전력량.xlsx
+++ b/data/남북한발전전력량.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\607-12\ai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C06FA64-101E-4DDE-8A71-66001C8D21CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA559E42-1C22-4459-A3AC-4308170D5C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="516" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>발전 전력별</t>
   </si>
@@ -126,9 +125,6 @@
   </si>
   <si>
     <t>신재생</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>북한</t>
@@ -136,52 +132,16 @@
   <si>
     <t>전력량 (억㎾h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>algol</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>c++</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>Riah</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>C+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -195,20 +155,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -295,17 +241,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -316,14 +260,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{D1C462D8-13BC-46CC-A109-F8B3390C8425}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -649,893 +592,893 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>1077</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>1186</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <v>1310</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <v>1444</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="8">
         <v>1650</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="8">
         <v>1847</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="8">
         <v>2055</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="8">
         <v>2244</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="8">
         <v>2153</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="8">
         <v>2393</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="8">
         <v>2664</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="8">
         <v>2852</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="8">
         <v>3065</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="8">
         <v>3225</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="8">
         <v>3421</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="8">
         <v>3646</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="8">
         <v>3812</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="8">
         <v>4031</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="8">
         <v>4224</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="8">
         <v>4336</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="8">
         <v>4747</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="8">
         <v>4969</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="8">
         <v>5096</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="8">
         <v>5171</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="8">
         <v>5220</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="8">
         <v>5281</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="8">
         <v>5404</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <v>64</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>51</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="8">
         <v>49</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="8">
         <v>60</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="8">
         <v>41</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="8">
         <v>55</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="8">
         <v>52</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="8">
         <v>54</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="8">
         <v>61</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="8">
         <v>61</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="8">
         <v>56</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="8">
         <v>42</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="8">
         <v>53</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="8">
         <v>69</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="8">
         <v>59</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="8">
         <v>52</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="8">
         <v>52</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="8">
         <v>50</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="8">
         <v>56</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="8">
         <v>56</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="8">
         <v>65</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="8">
         <v>78</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="8">
         <v>77</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="8">
         <v>84</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="8">
         <v>78</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="8">
         <v>58</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="8">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>484</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>573</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>696</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>803</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
         <v>1022</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="8">
         <v>1122</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="8">
         <v>1264</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="8">
         <v>1420</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="8">
         <v>1195</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="8">
         <v>1302</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="8">
         <v>1518</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="8">
         <v>1689</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="8">
         <v>1821</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="8">
         <v>1859</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="8">
         <v>2056</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="8">
         <v>2127</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="8">
         <v>2272</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="8">
         <v>2551</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="8">
         <v>2658</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="8">
         <v>2802</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="8">
         <v>3196</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="8">
         <v>3343</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="8">
         <v>3430</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="8">
         <v>3581</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="8">
         <v>3427</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="8">
         <v>3402</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="8">
         <v>3523</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>529</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="8">
         <v>563</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="8">
         <v>565</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>581</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <v>587</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="8">
         <v>670</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="8">
         <v>739</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="8">
         <v>771</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="8">
         <v>897</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="8">
         <v>1031</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="8">
         <v>1090</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="8">
         <v>1121</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="8">
         <v>1191</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="8">
         <v>1297</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="8">
         <v>1307</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="8">
         <v>1468</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="8">
         <v>1487</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="8">
         <v>1429</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="8">
         <v>1510</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="8">
         <v>1478</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="8">
         <v>1486</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="8">
         <v>1547</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="8">
         <v>1503</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="8">
         <v>1388</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="8">
         <v>1564</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="8">
         <v>1648</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="8">
         <v>1620</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y6" s="2">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
         <v>86</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="8">
         <v>118</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="8">
         <v>151</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="8">
         <v>173</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="8">
         <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="8">
         <v>277</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="8">
         <v>263</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="8">
         <v>247</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="8">
         <v>221</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="8">
         <v>231</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>230</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="8">
         <v>213</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="8">
         <v>193</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="8">
         <v>170</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="8">
         <v>186</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="8">
         <v>194</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="8">
         <v>202</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="8">
         <v>190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="8">
         <v>196</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="8">
         <v>206</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="8">
         <v>215</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="8">
         <v>225</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="8">
         <v>236</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="8">
         <v>255</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="8">
         <v>235</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="8">
         <v>237</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="8">
         <v>211</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="8">
         <v>215</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="8">
         <v>221</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="8">
         <v>216</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="8">
         <v>190</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="8">
         <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="8">
         <v>156</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <v>150</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="8">
         <v>142</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
         <v>133</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="8">
         <v>138</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="8">
         <v>142</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <v>125</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="8">
         <v>107</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="8">
         <v>102</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="8">
         <v>103</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="8">
         <v>102</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="8">
         <v>106</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="8">
         <v>106</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="8">
         <v>117</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="8">
         <v>125</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="8">
         <v>131</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="8">
         <v>126</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="8">
         <v>133</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="8">
         <v>141</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="8">
         <v>125</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="8">
         <v>134</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="8">
         <v>132</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="8">
         <v>135</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="8">
         <v>139</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="8">
         <v>130</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="8">
         <v>100</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="8">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="8">
         <v>121</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="8">
         <v>113</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="8">
         <v>105</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="8">
         <v>88</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="8">
         <v>93</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="8">
         <v>88</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="8">
         <v>88</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="8">
         <v>86</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="8">
         <v>68</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="8">
         <v>83</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="8">
         <v>92</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="8">
         <v>96</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="8">
         <v>84</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="8">
         <v>79</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="8">
         <v>81</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="8">
         <v>84</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="8">
         <v>99</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="8">
         <v>103</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="8">
         <v>114</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="8">
         <v>110</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="8">
         <v>103</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="8">
         <v>79</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="8">
         <v>80</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="8">
         <v>82</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="8">
         <v>86</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB9" s="8">
         <v>90</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC9" s="8">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>35</v>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1543,80 +1486,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47B37B3-6758-4DC3-A81F-D0B05CC845E8}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="16384" width="8.796875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>